--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2045241.108150591</v>
+        <v>-2047846.455183826</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12534061.51892678</v>
+        <v>12545852.19674081</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15411528.65071378</v>
+        <v>15415698.7094467</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.2146126744141</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>297.607293590734</v>
+        <v>13.67465239272489</v>
       </c>
       <c r="I2" t="n">
-        <v>52.86845664851253</v>
+        <v>48.08148421406807</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>54.94062914679596</v>
+        <v>113.0324549812898</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.6565392873045</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0186029205788</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.1561775373476</v>
+        <v>135.089742000015</v>
       </c>
       <c r="H3" t="n">
-        <v>91.11034837618719</v>
+        <v>90.46872094984357</v>
       </c>
       <c r="I3" t="n">
-        <v>14.08691327674305</v>
+        <v>11.79954938173971</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>131.0542969129161</v>
+        <v>129.8202859453569</v>
       </c>
       <c r="T3" t="n">
-        <v>191.3482150274173</v>
+        <v>191.0804331905373</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7974781582207</v>
+        <v>225.7931073991856</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -829,10 +829,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1571872936354</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>145.9230939674644</v>
+        <v>145.4278941339733</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.83943180792915</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>191.0879511638283</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>14.94542363371031</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>173.8521424908532</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>199.3046817945066</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>35.21134837541447</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>70.30330658127797</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>145.5000104076912</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>174.5260191820886</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>164.3202860926009</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>74.5703325417651</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>174.4769695869691</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>28.75188085811994</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>177.8809453463108</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>245.8796921214419</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>227.3641166063644</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>47.84205650381941</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>34.4570321290467</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>151.8555862333573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>73.98898794535422</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.11398998229748</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012174</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>137.3676443337287</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545296</v>
+        <v>26.05480806223599</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652535</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545303</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3269,13 +3269,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
@@ -3718,16 +3718,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,7 +4192,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
         <v>262.2383508445512</v>
@@ -4201,7 +4201,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1941.770328820483</v>
+        <v>1648.779966313945</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.807811880071</v>
+        <v>1279.817449373533</v>
       </c>
       <c r="D2" t="n">
-        <v>1214.542113273321</v>
+        <v>921.5517507667826</v>
       </c>
       <c r="E2" t="n">
-        <v>828.7538606750768</v>
+        <v>535.7634981685383</v>
       </c>
       <c r="F2" t="n">
-        <v>828.7538606750768</v>
+        <v>124.7775933789308</v>
       </c>
       <c r="G2" t="n">
-        <v>413.3855650443555</v>
+        <v>124.7775933789306</v>
       </c>
       <c r="H2" t="n">
-        <v>112.7721371749272</v>
+        <v>110.9648131842587</v>
       </c>
       <c r="I2" t="n">
-        <v>59.36965571178322</v>
+        <v>62.39765741247278</v>
       </c>
       <c r="J2" t="n">
-        <v>223.6389510734998</v>
+        <v>237.1001391730315</v>
       </c>
       <c r="K2" t="n">
-        <v>520.5745606447445</v>
+        <v>549.6723906315692</v>
       </c>
       <c r="L2" t="n">
-        <v>925.8512030185038</v>
+        <v>974.3476699529738</v>
       </c>
       <c r="M2" t="n">
-        <v>1408.468993552359</v>
+        <v>1478.55018180827</v>
       </c>
       <c r="N2" t="n">
-        <v>1903.50985287725</v>
+        <v>1995.525025811714</v>
       </c>
       <c r="O2" t="n">
-        <v>2357.627637384227</v>
+        <v>2470.354450076071</v>
       </c>
       <c r="P2" t="n">
-        <v>2710.705659215713</v>
+        <v>2841.109377259759</v>
       </c>
       <c r="Q2" t="n">
-        <v>2927.679802719475</v>
+        <v>3071.358140510238</v>
       </c>
       <c r="R2" t="n">
-        <v>2968.482785589161</v>
+        <v>3119.882870623639</v>
       </c>
       <c r="S2" t="n">
-        <v>2912.987200592397</v>
+        <v>3005.708673672841</v>
       </c>
       <c r="T2" t="n">
-        <v>2912.987200592397</v>
+        <v>2798.984896614958</v>
       </c>
       <c r="U2" t="n">
-        <v>2659.433056228176</v>
+        <v>2798.984896614958</v>
       </c>
       <c r="V2" t="n">
-        <v>2328.370168884605</v>
+        <v>2798.984896614958</v>
       </c>
       <c r="W2" t="n">
-        <v>2328.370168884605</v>
+        <v>2798.984896614958</v>
       </c>
       <c r="X2" t="n">
-        <v>2328.370168884605</v>
+        <v>2425.519138353878</v>
       </c>
       <c r="Y2" t="n">
-        <v>2328.370168884605</v>
+        <v>2035.379806378066</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1341.528820902749</v>
+        <v>1494.450283274069</v>
       </c>
       <c r="C3" t="n">
-        <v>1167.075791621621</v>
+        <v>1319.997253992942</v>
       </c>
       <c r="D3" t="n">
-        <v>1018.14138196037</v>
+        <v>1171.062844331691</v>
       </c>
       <c r="E3" t="n">
-        <v>858.9039269549146</v>
+        <v>1011.825389326235</v>
       </c>
       <c r="F3" t="n">
-        <v>712.3693689817995</v>
+        <v>865.2908313531201</v>
       </c>
       <c r="G3" t="n">
-        <v>575.8479775299334</v>
+        <v>728.8365465046202</v>
       </c>
       <c r="H3" t="n">
-        <v>483.8173226044918</v>
+        <v>637.4540000906368</v>
       </c>
       <c r="I3" t="n">
-        <v>469.5881172744483</v>
+        <v>625.5352633414047</v>
       </c>
       <c r="J3" t="n">
-        <v>673.4380622645651</v>
+        <v>710.7690176891849</v>
       </c>
       <c r="K3" t="n">
-        <v>886.6503454665603</v>
+        <v>1068.312822670918</v>
       </c>
       <c r="L3" t="n">
-        <v>1219.663113416803</v>
+        <v>1415.606302739112</v>
       </c>
       <c r="M3" t="n">
-        <v>1627.630174589485</v>
+        <v>1840.238281375768</v>
       </c>
       <c r="N3" t="n">
-        <v>2060.803554843277</v>
+        <v>2290.517649870796</v>
       </c>
       <c r="O3" t="n">
-        <v>2434.852775287807</v>
+        <v>2680.215507629991</v>
       </c>
       <c r="P3" t="n">
-        <v>2715.727185213053</v>
+        <v>2973.649328608492</v>
       </c>
       <c r="Q3" t="n">
-        <v>2933.190181986766</v>
+        <v>3119.882870623639</v>
       </c>
       <c r="R3" t="n">
-        <v>2968.482785589161</v>
+        <v>3119.882870623639</v>
       </c>
       <c r="S3" t="n">
-        <v>2836.104707899347</v>
+        <v>2988.751268658632</v>
       </c>
       <c r="T3" t="n">
-        <v>2642.823682619127</v>
+        <v>2795.740730082332</v>
       </c>
       <c r="U3" t="n">
-        <v>2414.745421853248</v>
+        <v>2567.666884224568</v>
       </c>
       <c r="V3" t="n">
-        <v>2179.593313621505</v>
+        <v>2332.514775992825</v>
       </c>
       <c r="W3" t="n">
-        <v>1925.355956893303</v>
+        <v>2078.277419264624</v>
       </c>
       <c r="X3" t="n">
-        <v>1717.50445668777</v>
+        <v>1870.425919059091</v>
       </c>
       <c r="Y3" t="n">
-        <v>1509.744157922817</v>
+        <v>1662.665620294137</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>988.4581264667736</v>
+        <v>823.1503835946082</v>
       </c>
       <c r="C4" t="n">
-        <v>819.5219435388667</v>
+        <v>654.2142006667013</v>
       </c>
       <c r="D4" t="n">
-        <v>669.4053041265311</v>
+        <v>504.0975612543655</v>
       </c>
       <c r="E4" t="n">
-        <v>521.4922105441378</v>
+        <v>356.1844676719724</v>
       </c>
       <c r="F4" t="n">
-        <v>374.6022630462275</v>
+        <v>209.294520174062</v>
       </c>
       <c r="G4" t="n">
-        <v>206.7667203253837</v>
+        <v>209.294520174062</v>
       </c>
       <c r="H4" t="n">
-        <v>59.36965571178322</v>
+        <v>62.39765741247278</v>
       </c>
       <c r="I4" t="n">
-        <v>59.36965571178322</v>
+        <v>62.39765741247278</v>
       </c>
       <c r="J4" t="n">
-        <v>95.29667538946003</v>
+        <v>102.223099803861</v>
       </c>
       <c r="K4" t="n">
-        <v>284.1726417778212</v>
+        <v>297.5053722589871</v>
       </c>
       <c r="L4" t="n">
-        <v>581.3952856386281</v>
+        <v>602.9258822712707</v>
       </c>
       <c r="M4" t="n">
-        <v>905.1640129945963</v>
+        <v>935.3381100583204</v>
       </c>
       <c r="N4" t="n">
-        <v>1226.66886009458</v>
+        <v>1265.280934468308</v>
       </c>
       <c r="O4" t="n">
-        <v>1507.614327944345</v>
+        <v>1554.020240090065</v>
       </c>
       <c r="P4" t="n">
-        <v>1724.491028290282</v>
+        <v>1777.565915077022</v>
       </c>
       <c r="Q4" t="n">
-        <v>1791.210133852898</v>
+        <v>1848.902273001216</v>
       </c>
       <c r="R4" t="n">
-        <v>1695.412727986302</v>
+        <v>1848.902273001216</v>
       </c>
       <c r="S4" t="n">
-        <v>1695.412727986302</v>
+        <v>1655.8841405125</v>
       </c>
       <c r="T4" t="n">
-        <v>1695.412727986302</v>
+        <v>1655.8841405125</v>
       </c>
       <c r="U4" t="n">
-        <v>1680.316340477504</v>
+        <v>1655.8841405125</v>
       </c>
       <c r="V4" t="n">
-        <v>1680.316340477504</v>
+        <v>1401.199652306613</v>
       </c>
       <c r="W4" t="n">
-        <v>1390.899170440543</v>
+        <v>1225.591427568378</v>
       </c>
       <c r="X4" t="n">
-        <v>1390.899170440543</v>
+        <v>1225.591427568378</v>
       </c>
       <c r="Y4" t="n">
-        <v>1170.106591297013</v>
+        <v>1004.798848424848</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1636.624422581789</v>
+        <v>1685.375546116518</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>958.1473305693555</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>572.3590779711112</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>565.4135772219078</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218338</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3290.038803048144</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3084.061055432366</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3084.061055432366</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2752.998168088795</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2400.229512818681</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2026.763754557601</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y5" t="n">
-        <v>1636.624422581789</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>532.8809675997568</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C7" t="n">
-        <v>532.8809675997568</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D7" t="n">
-        <v>382.764328187421</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E7" t="n">
-        <v>234.8512346050279</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915318</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484844</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610487</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1224.739181610487</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>935.3220115735267</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>935.3220115735267</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>714.5294324299965</v>
+        <v>1008.233631465111</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1899.13013587303</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="C8" t="n">
-        <v>1530.167618932618</v>
+        <v>1439.837779452053</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>1081.572080845302</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>695.7838282470582</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>284.7979234574506</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3049.335066174043</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>3049.335066174043</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>3049.335066174043</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>2675.869307912963</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y8" t="n">
-        <v>2285.729975937151</v>
+        <v>1808.800296392465</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.020896318616</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>608.0847133907091</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>602.6456555615222</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>958.6693611488557</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>958.6693611488557</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>958.6693611488557</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>958.6693611488557</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.853600740071</v>
+        <v>620.8230468926976</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>620.8230468926976</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797751</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2084.430526663135</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1795.355300007332</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1540.670811801445</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1251.253641764485</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138409</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703107</v>
+        <v>802.4715117229373</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038341</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1729.097755135314</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135314</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135314</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578601</v>
@@ -5668,13 +5668,13 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797742</v>
@@ -5686,7 +5686,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
         <v>2327.76484885336</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2412.158000621627</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2412.158000621627</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2412.158000621627</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2123.082773965825</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y19" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.0655846733346</v>
+        <v>726.9555321712454</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>558.0193492433385</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310028</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310028</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>261.0127623330924</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797189</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2043.673064443772</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1754.597837787969</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1499.913349582082</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1210.496179545122</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>982.5066286471044</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.7140495035743</v>
+        <v>908.6039970014851</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263207</v>
+        <v>808.8888553856868</v>
       </c>
       <c r="C25" t="n">
-        <v>680.4481746984137</v>
+        <v>639.95267245778</v>
       </c>
       <c r="D25" t="n">
-        <v>530.331535286078</v>
+        <v>489.8360330454442</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036848</v>
+        <v>489.8360330454442</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057739</v>
+        <v>342.9460855475339</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057739</v>
+        <v>175.7499862624138</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.7499862624138</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831764</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1769.232122535069</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1479.814952498108</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.825401600091</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.032822456561</v>
+        <v>990.5373202159267</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>923.0670414349511</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1550.665004989558</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319327</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C28" t="n">
-        <v>782.551295565682</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150025</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942656</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580115</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345477</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518751</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,22 +6540,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345472</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,13 +6643,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
         <v>1978.840049838285</v>
@@ -6658,13 +6658,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319319</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150018</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942649</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580108</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,28 +6880,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311324</v>
@@ -7114,28 +7114,28 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745236</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338367</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7406,31 +7406,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,40 +7634,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111731</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7795,22 +7795,22 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7834,7 +7834,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
@@ -7843,7 +7843,7 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
         <v>1280.338681582389</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>135.0615335795954</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>80.42938226428868</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>5.747744270113657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22556,13 +22556,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.0904450475561</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>282.6610094894493</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>60.92129563152135</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>205.2000830738755</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.0086695104302</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22717,13 +22717,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.1014899708501</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>100.3033462869333</v>
+        <v>98.62837588899008</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,22 +22750,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>92.33507763978304</v>
       </c>
       <c r="S4" t="n">
-        <v>192.0586035981866</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.1102960603998</v>
+        <v>219.8723165903172</v>
       </c>
       <c r="U4" t="n">
-        <v>271.2735807010629</v>
+        <v>286.2159662989849</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>112.6708558457378</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405079</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>39.52450498097745</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>40.30478226780226</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>59.1588817302266</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>100.7734165143929</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>31.91821458107498</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>65.54986409393094</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>144.5956654067406</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0.151846336268045</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>114.7699989900994</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>120.3791545843332</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>4.689582056016661e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-7.46078767100878e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1086303.380111473</v>
+        <v>1107225.995670645</v>
       </c>
     </row>
     <row r="3">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1342160.936893719</v>
+        <v>1342160.93689372</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1365087.967681277</v>
+        <v>1342160.93689372</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64921.82232287327</v>
+        <v>66311.339340301</v>
       </c>
       <c r="C2" t="n">
+        <v>82104.17698642834</v>
+      </c>
+      <c r="D2" t="n">
         <v>82104.17698642833</v>
-      </c>
-      <c r="D2" t="n">
-        <v>82104.1769864283</v>
       </c>
       <c r="E2" t="n">
         <v>80714.65996900058</v>
       </c>
       <c r="F2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900063</v>
       </c>
       <c r="G2" t="n">
         <v>80714.65996900058</v>
       </c>
       <c r="H2" t="n">
-        <v>80714.65996900063</v>
+        <v>80714.65996900058</v>
       </c>
       <c r="I2" t="n">
         <v>80714.6599690006</v>
       </c>
       <c r="J2" t="n">
+        <v>80714.6599690006</v>
+      </c>
+      <c r="K2" t="n">
         <v>82104.17698642836</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>82104.17698642833</v>
+      </c>
+      <c r="M2" t="n">
+        <v>82104.1769864283</v>
+      </c>
+      <c r="N2" t="n">
         <v>82104.17698642837</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>82104.17698642837</v>
       </c>
-      <c r="M2" t="n">
-        <v>82104.17698642836</v>
-      </c>
-      <c r="N2" t="n">
-        <v>82104.1769864284</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82104.17698642839</v>
-      </c>
       <c r="P2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642834</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1228620.061871475</v>
+        <v>1271067.297476341</v>
       </c>
       <c r="C3" t="n">
-        <v>95186.4934397294</v>
+        <v>54832.77288023784</v>
       </c>
       <c r="D3" t="n">
-        <v>1.765727120073279e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213599.1454818044</v>
+        <v>204074.6584503629</v>
       </c>
       <c r="K3" t="n">
-        <v>22978.01038359935</v>
+        <v>32664.3441059429</v>
       </c>
       <c r="L3" t="n">
-        <v>1.438655772290076e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363179</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>19427.71799363181</v>
       </c>
     </row>
     <row r="4">
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15667.67952732121</v>
+        <v>13682.8545440035</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314495</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314479</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
@@ -26439,16 +26439,16 @@
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>19157.89151488698</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488701</v>
       </c>
       <c r="L4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488705</v>
       </c>
       <c r="M4" t="n">
-        <v>19157.891514887</v>
+        <v>19157.89151488701</v>
       </c>
       <c r="N4" t="n">
         <v>19157.89151488699</v>
@@ -26457,7 +26457,7 @@
         <v>19157.89151488699</v>
       </c>
       <c r="P4" t="n">
-        <v>19157.891514887</v>
+        <v>19157.89151488699</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100917.4173209746</v>
+        <v>103892.0286120431</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26491,7 +26491,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
         <v>103164.1158539154</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1280283.336396897</v>
+        <v>-1322725.66223324</v>
       </c>
       <c r="C6" t="n">
-        <v>-211370.3240378393</v>
+        <v>-171016.6034783476</v>
       </c>
       <c r="D6" t="n">
-        <v>-116183.83059811</v>
+        <v>-116183.8305981098</v>
       </c>
       <c r="E6" t="n">
-        <v>-356987.3639140551</v>
+        <v>-357022.1018394909</v>
       </c>
       <c r="F6" t="n">
-        <v>-31574.90210670003</v>
+        <v>-31609.64003213569</v>
       </c>
       <c r="G6" t="n">
-        <v>-31574.90210670004</v>
+        <v>-31609.64003213577</v>
       </c>
       <c r="H6" t="n">
-        <v>-31574.9021067</v>
+        <v>-31609.64003213574</v>
       </c>
       <c r="I6" t="n">
-        <v>-31574.90210669998</v>
+        <v>-31609.64003213572</v>
       </c>
       <c r="J6" t="n">
-        <v>-253816.9758641784</v>
+        <v>-235684.2984824986</v>
       </c>
       <c r="K6" t="n">
-        <v>-63195.84076597337</v>
+        <v>-72882.17448831696</v>
       </c>
       <c r="L6" t="n">
-        <v>-40217.83038237417</v>
+        <v>-40217.83038237412</v>
       </c>
       <c r="M6" t="n">
-        <v>-125272.8583178858</v>
+        <v>-125272.858317886</v>
       </c>
       <c r="N6" t="n">
-        <v>-40217.83038237399</v>
+        <v>-40217.83038237401</v>
       </c>
       <c r="O6" t="n">
-        <v>-59645.54837600579</v>
+        <v>-40217.83038237401</v>
       </c>
       <c r="P6" t="n">
-        <v>-40217.83038237404</v>
+        <v>-59645.54837600586</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1016.921054129329</v>
+        <v>1047.807751310266</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972902</v>
+        <v>779.9707176559098</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="3">
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1016.921054129329</v>
+        <v>1047.807751310266</v>
       </c>
       <c r="C3" t="n">
-        <v>72.85564646396858</v>
+        <v>41.96894928303232</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972902</v>
+        <v>779.9707176559098</v>
       </c>
       <c r="C4" t="n">
-        <v>89.28075900500198</v>
+        <v>51.43073774638299</v>
       </c>
       <c r="D4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972902</v>
+        <v>779.9707176559098</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500198</v>
+        <v>51.43073774638299</v>
       </c>
       <c r="L4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972902</v>
+        <v>779.9707176559098</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500198</v>
+        <v>51.43073774638299</v>
       </c>
       <c r="L4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>211.6170438589468</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>73.9764134127614</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>75.11774144165328</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>73.08464294440361</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>236.3957064713649</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>86.67488586630108</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>71.86363010480407</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>77.66067373685888</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28275,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -29989,13 +29989,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.088124840720918</v>
+        <v>4.212292467578956</v>
       </c>
       <c r="H2" t="n">
-        <v>41.86750852503312</v>
+        <v>43.13914023359299</v>
       </c>
       <c r="I2" t="n">
-        <v>157.6074329218934</v>
+        <v>162.3944053563378</v>
       </c>
       <c r="J2" t="n">
-        <v>346.9744857001374</v>
+        <v>357.5130578201797</v>
       </c>
       <c r="K2" t="n">
-        <v>520.024810207854</v>
+        <v>535.819397972797</v>
       </c>
       <c r="L2" t="n">
-        <v>645.1367608020669</v>
+        <v>664.7313435774666</v>
       </c>
       <c r="M2" t="n">
-        <v>717.8389509382375</v>
+        <v>739.6416997477738</v>
       </c>
       <c r="N2" t="n">
-        <v>729.4543356419359</v>
+        <v>751.6098757212826</v>
       </c>
       <c r="O2" t="n">
-        <v>688.8030442570172</v>
+        <v>709.7238924967943</v>
       </c>
       <c r="P2" t="n">
-        <v>587.8774622517194</v>
+        <v>605.7329222034388</v>
       </c>
       <c r="Q2" t="n">
-        <v>441.4714913934014</v>
+        <v>454.8801982082672</v>
       </c>
       <c r="R2" t="n">
-        <v>256.8006720259356</v>
+        <v>264.6004167165568</v>
       </c>
       <c r="S2" t="n">
-        <v>93.15814480792802</v>
+        <v>95.98761460495554</v>
       </c>
       <c r="T2" t="n">
-        <v>17.89576649025583</v>
+        <v>18.43931027682689</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3270499872576734</v>
+        <v>0.3369833974063164</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.187339625863086</v>
+        <v>2.253775163195666</v>
       </c>
       <c r="H3" t="n">
-        <v>21.12509586030928</v>
+        <v>21.76672328665289</v>
       </c>
       <c r="I3" t="n">
-        <v>75.30971957467203</v>
+        <v>77.59708346967537</v>
       </c>
       <c r="J3" t="n">
-        <v>206.6556266698102</v>
+        <v>212.9323280280608</v>
       </c>
       <c r="K3" t="n">
-        <v>353.207381602637</v>
+        <v>363.9352639621704</v>
       </c>
       <c r="L3" t="n">
-        <v>474.9309130629476</v>
+        <v>489.3558747982521</v>
       </c>
       <c r="M3" t="n">
-        <v>554.2219745004844</v>
+        <v>571.0552244640949</v>
       </c>
       <c r="N3" t="n">
-        <v>568.8905810265576</v>
+        <v>586.1693570278063</v>
       </c>
       <c r="O3" t="n">
-        <v>520.4237398429597</v>
+        <v>536.2304442012075</v>
       </c>
       <c r="P3" t="n">
-        <v>417.6859325913466</v>
+        <v>430.3722063825129</v>
       </c>
       <c r="Q3" t="n">
-        <v>279.2119845224528</v>
+        <v>287.6924225861696</v>
       </c>
       <c r="R3" t="n">
-        <v>135.8069287005169</v>
+        <v>139.9317596938503</v>
       </c>
       <c r="S3" t="n">
-        <v>40.62887419092176</v>
+        <v>41.86288515848089</v>
       </c>
       <c r="T3" t="n">
-        <v>8.816513667404276</v>
+        <v>9.084295504284285</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1439039227541504</v>
+        <v>0.1482746817891887</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.83379206482338</v>
+        <v>1.889489387608676</v>
       </c>
       <c r="H4" t="n">
-        <v>16.30407853997516</v>
+        <v>16.79927837346624</v>
       </c>
       <c r="I4" t="n">
-        <v>55.14712864032495</v>
+        <v>56.82209903826821</v>
       </c>
       <c r="J4" t="n">
-        <v>129.649098983013</v>
+        <v>133.5868997039334</v>
       </c>
       <c r="K4" t="n">
-        <v>213.0532962585709</v>
+        <v>219.5243124876261</v>
       </c>
       <c r="L4" t="n">
-        <v>272.6348675283779</v>
+        <v>280.9155404086573</v>
       </c>
       <c r="M4" t="n">
-        <v>287.4552415795413</v>
+        <v>296.1860500957854</v>
       </c>
       <c r="N4" t="n">
-        <v>280.6201984288362</v>
+        <v>289.1434078328806</v>
       </c>
       <c r="O4" t="n">
-        <v>259.1981729443085</v>
+        <v>267.070736350361</v>
       </c>
       <c r="P4" t="n">
-        <v>221.7888148219113</v>
+        <v>228.5251528431438</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.5550791735287</v>
+        <v>158.2189704478502</v>
       </c>
       <c r="R4" t="n">
-        <v>82.45395956924034</v>
+        <v>84.95831373738645</v>
       </c>
       <c r="S4" t="n">
-        <v>31.95799443878563</v>
+        <v>32.92864687314392</v>
       </c>
       <c r="T4" t="n">
-        <v>7.835293367881714</v>
+        <v>8.073272837964341</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1000250217176391</v>
+        <v>0.1030630575059279</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32482,7 +32482,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460027</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>370.9642309107746</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32713,7 +32713,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M23" t="n">
         <v>965.6463440175675</v>
@@ -32786,7 +32786,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N24" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32959,7 +32959,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
         <v>790.8204499236507</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,7 +33032,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,10 +33041,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>167.1165249313368</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,16 +33260,16 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>688.8020111197787</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.410447117911</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622667</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,25 +34442,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,10 +34472,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>165.9285811734511</v>
+        <v>176.4671532934934</v>
       </c>
       <c r="K2" t="n">
-        <v>299.9349591628734</v>
+        <v>315.7295469278164</v>
       </c>
       <c r="L2" t="n">
-        <v>409.3703458320796</v>
+        <v>428.9649286074794</v>
       </c>
       <c r="M2" t="n">
-        <v>487.4927177109648</v>
+        <v>509.2954665205011</v>
       </c>
       <c r="N2" t="n">
-        <v>500.041272045345</v>
+        <v>522.1968121246916</v>
       </c>
       <c r="O2" t="n">
-        <v>458.7048328353304</v>
+        <v>479.6256810751075</v>
       </c>
       <c r="P2" t="n">
-        <v>356.6444664964499</v>
+        <v>374.4999264481692</v>
       </c>
       <c r="Q2" t="n">
-        <v>219.1658015189519</v>
+        <v>232.5745083338178</v>
       </c>
       <c r="R2" t="n">
-        <v>41.2151342118035</v>
+        <v>49.0148789024247</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>205.9090353435524</v>
+        <v>86.0947013613941</v>
       </c>
       <c r="K3" t="n">
-        <v>215.365942628278</v>
+        <v>361.1553585674069</v>
       </c>
       <c r="L3" t="n">
-        <v>336.3765332830735</v>
+        <v>350.8014950183779</v>
       </c>
       <c r="M3" t="n">
-        <v>412.0879405784661</v>
+        <v>428.9211905420765</v>
       </c>
       <c r="N3" t="n">
-        <v>437.5488689432243</v>
+        <v>454.827644944473</v>
       </c>
       <c r="O3" t="n">
-        <v>377.8274953985152</v>
+        <v>393.6341997567631</v>
       </c>
       <c r="P3" t="n">
-        <v>283.7115251770164</v>
+        <v>296.3977989681827</v>
       </c>
       <c r="Q3" t="n">
-        <v>219.65959270072</v>
+        <v>147.7106485001481</v>
       </c>
       <c r="R3" t="n">
-        <v>35.64909454787376</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.2899188663402</v>
+        <v>40.22771958726062</v>
       </c>
       <c r="K4" t="n">
-        <v>190.783804432688</v>
+        <v>197.2548206617433</v>
       </c>
       <c r="L4" t="n">
-        <v>300.2248927886941</v>
+        <v>308.5055656689734</v>
       </c>
       <c r="M4" t="n">
-        <v>327.0391185413819</v>
+        <v>335.769927057626</v>
       </c>
       <c r="N4" t="n">
-        <v>324.7523708080648</v>
+        <v>333.2755802121092</v>
       </c>
       <c r="O4" t="n">
-        <v>283.7833008583481</v>
+        <v>291.6558642644006</v>
       </c>
       <c r="P4" t="n">
-        <v>219.0673740868048</v>
+        <v>225.8037121080373</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.39303592183434</v>
+        <v>72.05692719615577</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191321</v>
       </c>
       <c r="M13" t="n">
         <v>426.2724270010451</v>
@@ -36130,7 +36130,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>228.3679864663302</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N24" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36525,13 +36525,13 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,7 +36680,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,10 +36689,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>546.2057666753343</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394708</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402485</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,19 +37944,19 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121327</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
